--- a/Doc/融创接口/设计协同项目/设计协同项目PI&ESB接口需求清单.xlsx
+++ b/Doc/融创接口/设计协同项目/设计协同项目PI&ESB接口需求清单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B35D42A-4A0B-4E3B-B292-9BE9A6EB7EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF5E9D-C91E-4CBE-849F-0748E1D174B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>序号</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>CAD设计协同平台审批过程中修改数据接口：CAD设计协同平台-&gt;BPM</t>
-  </si>
-  <si>
-    <t>CAD设计协同平台BS发起流程的接口：CAD设计协同平台-&gt;BPM</t>
   </si>
   <si>
     <t>BPM系统向业务系统提交创建结果的接口：BPM-&gt;CAD设计协同平台</t>
@@ -309,11 +306,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,49 +592,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="58.21875" customWidth="1"/>
     <col min="9" max="9" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:15" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="2:15" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -681,8 +678,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -719,8 +716,8 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="6">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -757,8 +754,8 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="6">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -795,8 +792,8 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="6">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -833,28 +830,28 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="6">
-        <v>5</v>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>20</v>
@@ -863,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>23</v>
@@ -871,9 +868,9 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
-        <v>6</v>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -909,9 +906,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="6">
-        <v>7</v>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -947,9 +944,9 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
-        <v>8</v>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -985,9 +982,9 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="6">
-        <v>9</v>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1023,25 +1020,25 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="6">
-        <v>10</v>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
@@ -1053,51 +1050,13 @@
         <v>21</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="6">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/融创接口/设计协同项目/设计协同项目PI&ESB接口需求清单.xlsx
+++ b/Doc/融创接口/设计协同项目/设计协同项目PI&ESB接口需求清单.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF5E9D-C91E-4CBE-849F-0748E1D174B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE2B6F-766E-423C-B705-22F2DE9F20F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -192,7 +192,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>CAD设计协同平台用户\组织信息查询服务的接口：CAD设计协同平台-&gt;IDM</t>
+    <t>项目文件管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD设计协同平台用户、组织信息查询服务的接口：CAD设计协同平台-&gt;IDM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量拉数据，初始化导入，项目主数据包括城市物理名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD设计协同平台项目主数据及土地信息查询服务的接口：CAD设计协同平台-&gt;BPM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +266,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -292,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,6 +335,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,31 +628,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O12"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="58.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="58.25" customWidth="1"/>
     <col min="9" max="9" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.25" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
@@ -634,7 +671,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="2:15" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -678,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -692,13 +729,13 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -710,13 +747,13 @@
       <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -730,13 +767,13 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -748,13 +785,13 @@
       <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -768,13 +805,13 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -786,13 +823,13 @@
       <c r="L5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -806,13 +843,13 @@
       <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -824,15 +861,15 @@
       <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -844,13 +881,13 @@
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -862,15 +899,15 @@
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -882,13 +919,13 @@
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -900,15 +937,15 @@
       <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -920,13 +957,13 @@
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -938,15 +975,15 @@
       <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -958,13 +995,13 @@
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -976,15 +1013,15 @@
       <c r="L10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -996,13 +1033,13 @@
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1014,15 +1051,15 @@
       <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1034,13 +1071,13 @@
       <c r="F12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1052,11 +1089,60 @@
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
